--- a/gourlier.xlsx
+++ b/gourlier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuelchateau/publicarchitectura/perso/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuelchateau/publicarchi/gourlier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033D5F35-E482-E446-AAF4-886424E89E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F70A1BB-DFC7-444D-B4FE-7C69268D7EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8180" yWindow="540" windowWidth="18880" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2384,7 +2384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2905,17 +2905,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="J190" sqref="J190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="7" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="2" t="s">
         <v>768</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>223</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>450</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>456</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>218</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>227</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>229</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>233</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>237</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>240</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>187</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>94</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>537</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>190</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>193</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>279</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>283</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>196</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>540</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>112</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>545</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>548</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>459</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>681</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>243</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>199</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>461</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>551</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>555</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>558</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>561</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
         <v>738</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>246</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>565</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
         <v>742</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
         <v>568</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
         <v>572</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
         <v>285</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>250</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
         <v>575</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
         <v>255</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
         <v>259</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
         <v>262</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
         <v>272</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
         <v>274</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
         <v>333</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
         <v>582</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
         <v>588</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
         <v>339</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
         <v>266</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
         <v>269</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
         <v>328</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
         <v>579</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
         <v>584</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
         <v>336</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
         <v>288</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
         <v>590</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
         <v>342</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
         <v>377</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>116</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
         <v>715</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
         <v>203</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
         <v>593</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
         <v>346</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
         <v>292</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
         <v>381</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
         <v>297</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
         <v>120</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
         <v>720</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
         <v>685</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
         <v>598</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
         <v>301</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
         <v>308</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
         <v>653</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
         <v>604</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
         <v>608</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
         <v>611</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
         <v>615</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
         <v>595</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
         <v>305</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
         <v>384</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
         <v>688</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
         <v>311</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
         <v>206</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
         <v>386</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
         <v>601</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
         <v>607</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
         <v>613</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
         <v>468</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
         <v>473</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
         <v>617</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
         <v>348</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
         <v>465</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
         <v>470</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
         <v>620</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
         <v>748</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
         <v>352</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
         <v>752</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
         <v>400</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
         <v>745</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
         <v>396</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
         <v>402</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
         <v>355</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
         <v>211</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
         <v>691</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
         <v>358</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
         <v>693</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
         <v>633</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
         <v>362</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
         <v>405</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11">
       <c r="A129" s="1" t="s">
         <v>696</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11">
       <c r="A130" s="1" t="s">
         <v>215</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11">
       <c r="A131" s="1" t="s">
         <v>433</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11">
       <c r="A132" s="1" t="s">
         <v>710</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11">
       <c r="A133" s="1" t="s">
         <v>411</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11">
       <c r="A134" s="1" t="s">
         <v>366</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11">
       <c r="A135" s="1" t="s">
         <v>435</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11">
       <c r="A136" s="1" t="s">
         <v>638</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11">
       <c r="A137" s="1" t="s">
         <v>641</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11">
       <c r="A138" s="1" t="s">
         <v>699</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11">
       <c r="A139" s="1" t="s">
         <v>32</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11">
       <c r="A140" s="1" t="s">
         <v>658</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11">
       <c r="A141" s="1" t="s">
         <v>661</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11">
       <c r="A142" s="1" t="s">
         <v>475</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11">
       <c r="A143" s="1" t="s">
         <v>664</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11">
       <c r="A144" s="1" t="s">
         <v>667</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11">
       <c r="A145" s="1" t="s">
         <v>124</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11">
       <c r="A146" s="1" t="s">
         <v>644</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11">
       <c r="A147" s="1" t="s">
         <v>647</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11">
       <c r="A148" s="1" t="s">
         <v>712</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11">
       <c r="A149" s="1" t="s">
         <v>701</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11">
       <c r="A150" s="1" t="s">
         <v>650</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11">
       <c r="A151" s="1" t="s">
         <v>372</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11">
       <c r="A152" s="1" t="s">
         <v>65</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11">
       <c r="A153" s="1" t="s">
         <v>704</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11">
       <c r="A154" s="1" t="s">
         <v>621</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11">
       <c r="A155" s="1" t="s">
         <v>416</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11">
       <c r="A156" s="1" t="s">
         <v>438</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11">
       <c r="A157" s="1">
         <v>21082</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11">
       <c r="A158" s="1" t="s">
         <v>479</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11">
       <c r="A159" s="1" t="s">
         <v>389</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11">
       <c r="A160" s="1" t="s">
         <v>45</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11">
       <c r="A161" s="1" t="s">
         <v>727</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11">
       <c r="A162" s="1" t="s">
         <v>731</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11">
       <c r="A163" s="1" t="s">
         <v>624</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11">
       <c r="A164" s="1" t="s">
         <v>754</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11">
       <c r="A165" s="1" t="s">
         <v>373</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11">
       <c r="A166" s="1" t="s">
         <v>419</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11">
       <c r="A167" s="1" t="s">
         <v>482</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11">
       <c r="A168" s="1" t="s">
         <v>422</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11">
       <c r="A169" s="1" t="s">
         <v>722</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11">
       <c r="A170" s="1" t="s">
         <v>485</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11">
       <c r="A171" s="1" t="s">
         <v>669</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11">
       <c r="A172" s="1" t="s">
         <v>48</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11">
       <c r="A173" s="1" t="s">
         <v>725</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11">
       <c r="A174" s="1" t="s">
         <v>489</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11">
       <c r="A175" s="1" t="s">
         <v>756</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11">
       <c r="A176" s="1" t="s">
         <v>492</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11">
       <c r="A177" s="1" t="s">
         <v>534</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11">
       <c r="A178" s="1" t="s">
         <v>494</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11">
       <c r="A179" s="1" t="s">
         <v>758</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11">
       <c r="A180" s="1" t="s">
         <v>761</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11">
       <c r="A181" s="1" t="s">
         <v>707</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11">
       <c r="A182" s="1" t="s">
         <v>672</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11">
       <c r="A183" s="1" t="s">
         <v>531</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11">
       <c r="A184" s="1" t="s">
         <v>498</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11">
       <c r="A185" s="1" t="s">
         <v>675</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11">
       <c r="A186" s="1" t="s">
         <v>678</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11">
       <c r="A187" s="1" t="s">
         <v>392</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11">
       <c r="A188" s="1" t="s">
         <v>528</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11">
       <c r="A189" s="1" t="s">
         <v>626</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11">
       <c r="A190" s="1" t="s">
         <v>764</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11">
       <c r="A191" s="1" t="s">
         <v>441</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11">
       <c r="A192" s="1" t="s">
         <v>128</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="s">
         <v>630</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="s">
         <v>132</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="s">
         <v>52</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="s">
         <v>313</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="s">
         <v>316</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="s">
         <v>136</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="s">
         <v>502</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="s">
         <v>444</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="s">
         <v>447</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="s">
         <v>408</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="s">
         <v>319</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="s">
         <v>505</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="s">
         <v>425</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="s">
         <v>509</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="s">
         <v>429</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="s">
         <v>139</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="s">
         <v>143</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="s">
         <v>147</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="s">
         <v>150</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="s">
         <v>153</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="s">
         <v>156</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="s">
         <v>160</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="s">
         <v>163</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="s">
         <v>512</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="s">
         <v>525</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="s">
         <v>766</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="s">
         <v>515</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="s">
         <v>276</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="s">
         <v>520</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="s">
         <v>72</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="s">
         <v>166</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="s">
         <v>736</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="s">
         <v>170</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="s">
         <v>173</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="s">
         <v>323</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="s">
         <v>522</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="s">
         <v>734</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="s">
         <v>325</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="s">
         <v>176</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="s">
         <v>180</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9">
       <c r="B233" t="s">
         <v>11</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9">
       <c r="C234" t="s">
         <v>185</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9">
       <c r="B235" s="3" t="s">
         <v>186</v>
       </c>
@@ -9533,7 +9533,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:K235">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K235">
     <sortCondition ref="E1:E235"/>
     <sortCondition ref="D1:D235"/>
     <sortCondition ref="G1:G235"/>
@@ -9549,7 +9549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
